--- a/prep_and_checklists/Skadden  /PREP_REQ_Skadden  _Thursday, July 24, 2025  _0.xlsx
+++ b/prep_and_checklists/Skadden  /PREP_REQ_Skadden  _Thursday, July 24, 2025  _0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Skadden  /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3929977-1D22-7E45-9B67-EE74C8CA4C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD4BDE5-5C3A-5A4C-BDF6-3AAEFE542A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="920" windowWidth="29940" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14260" yWindow="760" windowWidth="29940" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prep Req" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
-  <si>
-    <t>EVENT PREP 07-10-2025</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+  <si>
+    <t>EVENT PREP 07-11-2025</t>
   </si>
   <si>
     <t>Prep</t>
@@ -43,13 +43,7 @@
     <t>Pulled by Event Team</t>
   </si>
   <si>
-    <t>lobster rolls</t>
-  </si>
-  <si>
-    <t>canape</t>
-  </si>
-  <si>
-    <t>2025-07-24, by 4pm</t>
+    <t>Wednesday, July 23, 2025, by 4pm</t>
   </si>
   <si>
     <t>station crudite  &amp; mezze / cheese &amp; charcuterie</t>
@@ -58,9 +52,6 @@
     <t>fava bean hummus</t>
   </si>
   <si>
-    <t>fire roasted eggplant</t>
-  </si>
-  <si>
     <t>carrot miso</t>
   </si>
   <si>
@@ -73,28 +64,37 @@
     <t xml:space="preserve">station sides </t>
   </si>
   <si>
-    <t>whipped sheeps milk feta</t>
-  </si>
-  <si>
-    <t>cook quinoa</t>
-  </si>
-  <si>
-    <t>cook farro</t>
-  </si>
-  <si>
-    <t>cook bulgur</t>
-  </si>
-  <si>
-    <t>cut and roast mulitcolor carrots</t>
-  </si>
-  <si>
-    <t>carrot vin</t>
-  </si>
-  <si>
-    <t>pitted dates</t>
-  </si>
-  <si>
-    <t>dukkah</t>
+    <t>1 case</t>
+  </si>
+  <si>
+    <t>butcher /  brine / grill sasso chickens</t>
+  </si>
+  <si>
+    <t>15 whole, 30 halves</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 x recipe</t>
+  </si>
+  <si>
+    <t>1x recipe</t>
+  </si>
+  <si>
+    <t>4 pints</t>
+  </si>
+  <si>
+    <t>3 pints</t>
+  </si>
+  <si>
+    <t>cut corn off the cob</t>
+  </si>
+  <si>
+    <t>station entrees</t>
+  </si>
+  <si>
+    <t>wash / cut   Swiss chard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cases </t>
   </si>
 </sst>
 </file>
@@ -104,7 +104,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dddd\ m/d"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +155,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -170,7 +176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -230,11 +236,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -278,6 +299,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,18 +520,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V976"/>
+  <dimension ref="A1:V966"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A3" sqref="A3:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="59" style="2" customWidth="1"/>
-    <col min="4" max="5" width="21.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="48.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="54.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="22.83203125" style="2" customWidth="1"/>
     <col min="7" max="22" width="8.83203125" style="2" customWidth="1"/>
     <col min="23" max="23" width="14.5" style="2" customWidth="1"/>
@@ -578,14 +603,16 @@
     </row>
     <row r="3" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="8"/>
@@ -608,17 +635,19 @@
     </row>
     <row r="4" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -638,17 +667,19 @@
     </row>
     <row r="5" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="C5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -668,14 +699,16 @@
     </row>
     <row r="6" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10" t="s">
-        <v>10</v>
-      </c>
       <c r="D6" s="12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="4"/>
@@ -698,14 +731,16 @@
     </row>
     <row r="7" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="4"/>
@@ -727,15 +762,17 @@
       <c r="V7" s="3"/>
     </row>
     <row r="8" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="C8" s="10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="4"/>
@@ -757,18 +794,20 @@
       <c r="V8" s="3"/>
     </row>
     <row r="9" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="10"/>
+      <c r="A9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="C9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -787,16 +826,10 @@
       <c r="V9" s="3"/>
     </row>
     <row r="10" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="4"/>
       <c r="G10" s="3"/>
@@ -817,16 +850,10 @@
       <c r="V10" s="3"/>
     </row>
     <row r="11" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="A11" s="10"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="4"/>
       <c r="G11" s="3"/>
@@ -847,18 +874,12 @@
       <c r="V11" s="3"/>
     </row>
     <row r="12" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>20</v>
-      </c>
+      <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="5"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -877,18 +898,12 @@
       <c r="V12" s="3"/>
     </row>
     <row r="13" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>21</v>
-      </c>
+      <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="5"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -907,18 +922,12 @@
       <c r="V13" s="3"/>
     </row>
     <row r="14" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="5"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -937,18 +946,12 @@
       <c r="V14" s="3"/>
     </row>
     <row r="15" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="A15" s="10"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="5"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="4"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -967,18 +970,12 @@
       <c r="V15" s="3"/>
     </row>
     <row r="16" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="A16" s="10"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="5"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1072,9 +1069,9 @@
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="4"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="5"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1096,9 +1093,9 @@
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="4"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -1116,13 +1113,13 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
     </row>
-    <row r="22" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="4"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -1140,13 +1137,13 @@
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
     </row>
-    <row r="23" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="4"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -1164,13 +1161,13 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
     </row>
-    <row r="24" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="4"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -1188,13 +1185,13 @@
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
     </row>
-    <row r="25" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="4"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -1212,13 +1209,13 @@
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
     </row>
-    <row r="26" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="4"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -1236,13 +1233,13 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
     </row>
-    <row r="27" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="4"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -1260,13 +1257,13 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
     </row>
-    <row r="28" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="4"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -1284,247 +1281,87 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
     </row>
-    <row r="29" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-    </row>
-    <row r="30" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-    </row>
-    <row r="31" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-    </row>
-    <row r="32" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-    </row>
-    <row r="33" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-    </row>
-    <row r="34" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-    </row>
-    <row r="35" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-    </row>
-    <row r="36" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-    </row>
-    <row r="37" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-    </row>
-    <row r="38" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-    </row>
-    <row r="39" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -1532,7 +1369,7 @@
       <c r="E39" s="10"/>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -1540,7 +1377,7 @@
       <c r="E40" s="10"/>
       <c r="F40" s="9"/>
     </row>
-    <row r="41" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -1548,7 +1385,7 @@
       <c r="E41" s="10"/>
       <c r="F41" s="9"/>
     </row>
-    <row r="42" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -1556,7 +1393,7 @@
       <c r="E42" s="10"/>
       <c r="F42" s="9"/>
     </row>
-    <row r="43" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -1564,7 +1401,7 @@
       <c r="E43" s="10"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -1572,7 +1409,7 @@
       <c r="E44" s="10"/>
       <c r="F44" s="9"/>
     </row>
-    <row r="45" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -1580,7 +1417,7 @@
       <c r="E45" s="10"/>
       <c r="F45" s="9"/>
     </row>
-    <row r="46" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -1588,7 +1425,7 @@
       <c r="E46" s="10"/>
       <c r="F46" s="9"/>
     </row>
-    <row r="47" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -1596,7 +1433,7 @@
       <c r="E47" s="10"/>
       <c r="F47" s="9"/>
     </row>
-    <row r="48" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -1612,86 +1449,16 @@
       <c r="E49" s="10"/>
       <c r="F49" s="9"/>
     </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="9"/>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="9"/>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="9"/>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="9"/>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="9"/>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="9"/>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="9"/>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="9"/>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="9"/>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="9"/>
-    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2599,16 +2366,6 @@
     <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
